--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28710"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\practice\practice-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B985A32-BCE1-48A7-8DD1-D309ECA1781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054F5AF7-AC1A-4526-96B7-CFACA9A98586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C28F268C-1516-4989-9D16-271B7AD71642}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Om kumar</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Hammad Malik</t>
+  </si>
+  <si>
+    <t>asjbajhvjascs</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3A7AC4-BAA3-4FAA-93FA-EE960FC295AE}">
-  <dimension ref="F6:G32"/>
+  <dimension ref="F6:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G32"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +504,7 @@
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F6" s="1">
         <v>45728.460127314815</v>
       </c>
@@ -509,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F7" s="1">
         <v>45728.460636574076</v>
       </c>
@@ -517,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F8" s="1">
         <v>45728.461064814815</v>
       </c>
@@ -525,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F9" s="1">
         <v>45728.461944444447</v>
       </c>
@@ -533,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F10" s="1">
         <v>45728.462581018517</v>
       </c>
@@ -541,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F11" s="1">
         <v>45728.480937499997</v>
       </c>
@@ -549,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F12" s="1">
         <v>45728.48164351852</v>
       </c>
@@ -557,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F13" s="1">
         <v>45728.483078703706</v>
       </c>
@@ -565,15 +568,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F14" s="1">
         <v>45728.497361111113</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F15" s="1">
         <v>45728.498148148145</v>
       </c>
@@ -581,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F16" s="1">
         <v>45728.499918981484</v>
       </c>
